--- a/src/main/resources/file/问题总结列表.xlsx
+++ b/src/main/resources/file/问题总结列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,46 @@
       </rPr>
       <t>是</t>
     </r>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>添加接口:会员注册判断推荐人是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户退出登录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -152,13 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,7 +496,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -498,16 +541,28 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>

--- a/src/main/resources/file/问题总结列表.xlsx
+++ b/src/main/resources/file/问题总结列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,115 @@
       </rPr>
       <t>用户退出登录</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <r>
+      <t>listBusinessByAgent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loginName
+uploadPhoto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loginName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">参数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口传入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>loginName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -200,6 +309,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,9 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -541,35 +654,49 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.75">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>

--- a/src/main/resources/file/问题总结列表.xlsx
+++ b/src/main/resources/file/问题总结列表.xlsx
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,19 +44,6 @@
   <si>
     <t>w</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
   </si>
   <si>
     <t>否</t>
@@ -104,6 +87,14 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -204,11 +195,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t</t>
+    <t>待</t>
+  </si>
+  <si>
+    <t>解决状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w</t>
+    <r>
+      <t>listBusinessByAgent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口暂时不支持手机号查询</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1">
@@ -641,16 +647,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -658,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -675,16 +681,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75">
@@ -694,16 +700,22 @@
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
@@ -2992,8 +3004,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>"否,是"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7">
+      <formula1>"是,否,待"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
